--- a/Master/MasterData/NPCResource.xlsx
+++ b/Master/MasterData/NPCResource.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">$CLIENT_ONLY</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">DLCName</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">Index</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -251,7 +254,7 @@
   <dimension ref="A4:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,38 +286,44 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5"/>
